--- a/Tratamento/Inserção de novos dados/Comparação dos campos de cada tabela.xlsx
+++ b/Tratamento/Inserção de novos dados/Comparação dos campos de cada tabela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4763,315 +4763,632 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2024-1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hash</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Data de cadastro</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Canal de atendimento</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Denúncia emergencial</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Denunciante</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cenário da violação</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>País</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>UF</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Município</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Frequência</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Início das violações</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>sl quantidade vitimas</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Grupo vulnerável</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Motivações</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Relação vítima-suspeito</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>sl vitima cadastro</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Sexo da vítima</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Orientação sexual da vítima</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Faixa etária da vítima</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Nacionalidade da vítima</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>sl vitima naturalidade</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>sl vitima naturalizado uf</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>sl vitima naturalizado municipio</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Deficiência da vítima</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Doença rara da vítima</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Deficiência relacionada a doença rara</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Vítima preso(a)</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>País da vítima</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>UF da vítima</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Município da vítima</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Profissão da vítima</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Grau de instrução da vítima</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Religião da vítima</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Raça\Cor da vítima</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Etnia da vítima</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Faixa de renda da vítima</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Natureza Jurídica do Suspeito</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Sexo do suspeito</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>Orientação sexual do suspeito</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Faixa etária do suspeito</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Nacionalidade do suspeito</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>sl suspeito naturalidade</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>sl suspeito naturalizado uf</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>sl suspeito naturalizado municipio</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>Deficiência do suspeito</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Doença rara do suspeito</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Deficiência relacionada a doença rara (suspeito)</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Suspeito preso</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>País do suspeito</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>UF do suspeito</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>Município do suspeito</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>Profissão do suspeito</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>Grau de instrução do suspeito</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Religião do suspeito</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>Raça\Cor do suspeito</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Etnia do Suspeito</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>Faixa de renda do suspeito</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Vínculo Órgão\PJ do suspeito</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>sl suspeito ramo</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>suspeito especificacao etnia</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>vitima especificacao etnia</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>Violações</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Padrão seguido atualmente</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>hash</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Data_de_cadastro</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Canal_de_atendimento</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Denúncia_emergencial</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Denunciante</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Cenário_da_violação</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>País</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>UF</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Município</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Frequência</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Início_das_violações</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>sl_quantidade_vitimas</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Grupo_vulnerável</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Motivação</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Relação_vítima_suspeito</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>sl_vitima_cadastro</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Gênero_da_vítima</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Orientação_sexual_da_vítima</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>Faixa_etária_da_vítima</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>Nacionalidade_da_vítima</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>sl_vitima_naturalidade</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>sl_vitima_naturalizado_uf</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>sl_vitima_naturalizado_municipio</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>Deficiência_da_vítima</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Doença_rara_da_vítima</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>Deficiência_relacionada_a_doença_rara</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>Vítima_preso_a</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>País_da_vítima</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>UF_da_vítima</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Município_da_vítima</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Profissão_da_vítima</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>Grau_de_instrução_da_vítima</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>Religião_da_vítima</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>Raça_Cor_da_vítima</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>Etnia_da_vítima</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>Faixa_de_renda_da_vítima</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>Natureza_Jurídica_do_Suspeito</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>Gênero_do_suspeito</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>Orientação_sexual_do_suspeito</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>Faixa_etária_do_suspeito</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>Suspeito_nacionalidade</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>sl_suspeito_naturalidade</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>sl_suspeito_naturalizado_uf</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>sl_suspeito_naturalizado_municipio</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>Deficiência_do_suspeito</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>Doença_rara_do_suspeito</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="AV19" t="inlineStr">
         <is>
           <t>Deficiência_relacionada_a_doença_rara_suspeito</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr">
+      <c r="AW19" t="inlineStr">
         <is>
           <t>Suspeito_preso</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>País_do_suspeito</t>
         </is>
       </c>
-      <c r="AY18" t="inlineStr">
+      <c r="AY19" t="inlineStr">
         <is>
           <t>UF_do_suspeito</t>
         </is>
       </c>
-      <c r="AZ18" t="inlineStr">
+      <c r="AZ19" t="inlineStr">
         <is>
           <t>sl_suspeito_municipio</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr">
+      <c r="BA19" t="inlineStr">
         <is>
           <t>Profissão_do_suspeito</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr">
+      <c r="BB19" t="inlineStr">
         <is>
           <t>Grau_de_instrução_do_suspeito</t>
         </is>
       </c>
-      <c r="BC18" t="inlineStr">
+      <c r="BC19" t="inlineStr">
         <is>
           <t>Religião_do_suspeito</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
+      <c r="BD19" t="inlineStr">
         <is>
           <t>Raça_Cor_do_suspeito</t>
         </is>
       </c>
-      <c r="BE18" t="inlineStr">
+      <c r="BE19" t="inlineStr">
         <is>
           <t>Suspeito_Etnia</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
+      <c r="BF19" t="inlineStr">
         <is>
           <t>Faixa_de_renda_do_suspeito</t>
         </is>
       </c>
-      <c r="BG18" t="inlineStr">
+      <c r="BG19" t="inlineStr">
         <is>
           <t>Vínculo_Órgão_PJ_do_suspeito</t>
         </is>
       </c>
-      <c r="BH18" t="inlineStr">
+      <c r="BH19" t="inlineStr">
         <is>
           <t>sl_suspeito_ramo</t>
         </is>
       </c>
-      <c r="BI18" t="inlineStr">
+      <c r="BI19" t="inlineStr">
         <is>
           <t>suspeito_especificacao_etnia</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
+      <c r="BJ19" t="inlineStr">
         <is>
           <t>vitima_especificacao_etnia</t>
         </is>
       </c>
-      <c r="BK18" t="inlineStr">
+      <c r="BK19" t="inlineStr">
         <is>
           <t>violacao</t>
         </is>
